--- a/WeatherData/Description_Weatherfile_format_Excel.xlsx
+++ b/WeatherData/Description_Weatherfile_format_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\bifacialSimu\WeatherData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36030BA-A147-4438-A6B6-F0CD56CA1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC08E279-1F5F-45E5-87FF-675F930F4BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{777A99B9-AF43-4079-B408-9B2487A38746}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <t>UTC_Offset</t>
   </si>
   <si>
-    <t>pressure (PA)</t>
+    <t>Pressure (mbar)</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H8762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
